--- a/docs Excel/TablaResultados.xlsx
+++ b/docs Excel/TablaResultados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\InfracompCaso3\InfracompCasox\docs Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +638,9 @@
       <c r="C10" s="6">
         <v>21.51</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="6">
+        <v>5</v>
+      </c>
       <c r="F10" s="5">
         <v>8</v>
       </c>
@@ -683,7 +685,7 @@
       </c>
       <c r="D12" s="6">
         <f>AVERAGE(D3:D11)</f>
-        <v>6.9671428571428589</v>
+        <v>6.7212500000000013</v>
       </c>
     </row>
   </sheetData>
